--- a/xlsx/挪威国防军_intext.xlsx
+++ b/xlsx/挪威国防军_intext.xlsx
@@ -26,16 +26,16 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8C%AA%E5%A8%81%E7%9A%87%E5%AE%B6%E9%99%B8%E8%BB%8D</t>
   </si>
   <si>
-    <t>挪威皇家陸軍</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_挪威国防军</t>
+    <t>挪威皇家陆军</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_挪威国防军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8C%AA%E5%A8%81%E7%9A%87%E5%AE%B6%E6%B5%B7%E8%BB%8D</t>
   </si>
   <si>
-    <t>挪威皇家海軍</t>
+    <t>挪威皇家海军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8C%AA%E5%A8%81%E7%9A%87%E5%AE%B6%E7%A9%BA%E5%86%9B</t>
@@ -101,19 +101,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8C%AA%E5%A8%81%E8%AA%9E</t>
   </si>
   <si>
-    <t>挪威語</t>
+    <t>挪威语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8C%AA%E5%A8%81%E7%8E%8B%E5%9C%8B</t>
   </si>
   <si>
-    <t>挪威王國</t>
+    <t>挪威王国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E8%AD%B0%E6%9C%83</t>
   </si>
   <si>
-    <t>國家議會</t>
+    <t>国家议会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8C%AA%E5%A8%81</t>
@@ -125,13 +125,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>第二次世界大戰</t>
+    <t>第二次世界大战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>德國</t>
+    <t>德国</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/German_occupation_of_Norway</t>
@@ -143,13 +143,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%A4%A7%E8%A5%BF%E6%B4%8B%E5%85%AC%E7%B4%84%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>北大西洋公約組織</t>
+    <t>北大西洋公约组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B5%E5%85%B5%E5%88%B6</t>
   </si>
   <si>
-    <t>徵兵制</t>
+    <t>征兵制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%85</t>
@@ -167,7 +167,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E7%A8%AE%E9%83%A8%E9%9A%8A</t>
   </si>
   <si>
-    <t>特種部隊</t>
+    <t>特种部队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B1%B92%E5%9E%8B%E5%9D%A6%E5%85%8B</t>
@@ -179,37 +179,37 @@
     <t>https://zh.wikipedia.org/wiki/M113%E8%A3%9D%E7%94%B2%E9%81%8B%E5%85%B5%E8%BB%8A</t>
   </si>
   <si>
-    <t>M113裝甲運兵車</t>
+    <t>M113装甲运兵车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%A3%AE%E7%B4%9A%E5%B7%A1%E9%98%B2%E8%89%A6</t>
   </si>
   <si>
-    <t>南森級巡防艦</t>
+    <t>南森级巡防舰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A1%E9%98%B2%E8%89%A6</t>
   </si>
   <si>
-    <t>巡防艦</t>
+    <t>巡防舰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BD%9B%E8%89%A6</t>
   </si>
   <si>
-    <t>潛艦</t>
+    <t>潜舰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AD%B7%E8%A1%9B%E8%89%A6</t>
   </si>
   <si>
-    <t>護衛艦</t>
+    <t>护卫舰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A1%E9%82%8F%E8%89%87</t>
   </si>
   <si>
-    <t>巡邏艇</t>
+    <t>巡逻艇</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Olso-class_frigate</t>
@@ -263,13 +263,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E6%8B%89%E7%B4%9A%E6%BD%9B%E8%89%87</t>
   </si>
   <si>
-    <t>烏拉級潛艇</t>
+    <t>乌拉级潜艇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/AGM-119_%E4%BC%81%E9%B5%9D%E5%8F%8D%E8%89%A6%E9%A3%9B%E5%BD%88</t>
   </si>
   <si>
-    <t>AGM-119 企鵝反艦飛彈</t>
+    <t>AGM-119 企鹅反舰飞弹</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Naval_Strike_Missile</t>
@@ -281,7 +281,7 @@
     <t>https://zh.wikipedia.org/wiki/F-16%E6%88%B0%E9%9A%BC%E6%88%B0%E9%AC%A5%E6%A9%9F</t>
   </si>
   <si>
-    <t>F-16戰隼戰鬥機</t>
+    <t>F-16战隼战斗机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E9%87%8C%E6%96%AF%E8%92%82%E5%AE%89%E6%A1%91</t>
@@ -299,7 +299,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AB%BE%E7%88%BE%E8%98%AD%E9%83%A1</t>
   </si>
   <si>
-    <t>諾爾蘭郡</t>
+    <t>诺尔兰郡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%9A%E5%BE%B7</t>
@@ -311,7 +311,7 @@
     <t>https://zh.wikipedia.org/wiki/SH-3%E6%B5%B7%E7%8E%8B%E7%9B%B4%E6%98%87%E6%A9%9F</t>
   </si>
   <si>
-    <t>SH-3海王直昇機</t>
+    <t>SH-3海王直昇机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E7%89%B9%E4%BC%A6%E5%BE%B7%E6%8B%89%E6%A0%BC%E9%83%A1</t>
@@ -323,25 +323,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E8%98%AD</t>
   </si>
   <si>
-    <t>歐蘭</t>
+    <t>欧兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/E-3%E7%A9%BA%E4%B8%AD%E9%A0%90%E8%AD%A6%E6%A9%9F</t>
   </si>
   <si>
-    <t>E-3空中預警機</t>
+    <t>E-3空中预警机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%B3%B6</t>
   </si>
   <si>
-    <t>安島</t>
+    <t>安岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/P-3%E7%8D%B5%E6%88%B6%E5%BA%A7%E6%B5%B7%E4%B8%8A%E5%B7%A1%E9%82%8F%E6%A9%9F</t>
   </si>
   <si>
-    <t>P-3獵戶座海上巡邏機</t>
+    <t>P-3猎户座海上巡逻机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E7%BD%97%E5%A7%86%E6%96%AF%E9%83%A1</t>
@@ -377,19 +377,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E6%96%AF%E9%99%B8%E5%9C%8B%E9%9A%9B%E6%A9%9F%E5%A0%B4</t>
   </si>
   <si>
-    <t>奧斯陸國際機場</t>
+    <t>奥斯陆国际机场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/C-130%E9%81%8B%E8%BC%B8%E6%A9%9F</t>
   </si>
   <si>
-    <t>C-130運輸機</t>
+    <t>C-130运输机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E7%A6%8F%E7%88%BE%E9%83%A1</t>
   </si>
   <si>
-    <t>東福爾郡</t>
+    <t>东福尔郡</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Dassault_Falcon_20</t>
@@ -401,19 +401,19 @@
     <t>https://zh.wikipedia.org/wiki/F-5%E8%87%AA%E7%94%B1%E9%AC%A5%E5%A3%AB%E6%88%B0%E9%AC%A5%E6%A9%9F</t>
   </si>
   <si>
-    <t>F-5自由鬥士戰鬥機</t>
+    <t>F-5自由斗士战斗机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E5%8A%A0%E8%98%AD%E9%83%A1</t>
   </si>
   <si>
-    <t>羅加蘭郡</t>
+    <t>罗加兰郡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%B0%91%E8%AD%A6%E8%A1%9B%E9%9A%8A</t>
   </si>
   <si>
-    <t>國民警衛隊</t>
+    <t>国民警卫队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E6%B2%BB%E5%B8%82</t>
@@ -437,55 +437,55 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E4%BA%8B</t>
   </si>
   <si>
-    <t>軍事</t>
+    <t>军事</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B</t>
   </si>
   <si>
-    <t>聯合國</t>
+    <t>联合国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E6%9C%83%E5%93%A1%E5%9C%8B%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>聯合國會員國列表</t>
+    <t>联合国会员国列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%88%BE%E5%B7%B4%E5%B0%BC%E4%BA%9E%E8%BB%8D%E4%BA%8B</t>
   </si>
   <si>
-    <t>阿爾巴尼亞軍事</t>
+    <t>阿尔巴尼亚军事</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E5%9C%B0%E5%88%A9%E8%BB%8D%E4%BA%8B</t>
   </si>
   <si>
-    <t>奥地利軍事</t>
+    <t>奥地利军事</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%88%A9%E6%99%82%E8%BB%8D%E4%BA%8B</t>
   </si>
   <si>
-    <t>比利時軍事</t>
+    <t>比利时军事</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%8A%A0%E5%88%A9%E4%BA%9E%E8%BB%8D%E4%BA%8B</t>
   </si>
   <si>
-    <t>保加利亞軍事</t>
+    <t>保加利亚军事</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E7%BE%85%E5%9F%83%E8%A5%BF%E4%BA%9E%E8%BB%8D%E4%BA%8B</t>
   </si>
   <si>
-    <t>克羅埃西亞軍事</t>
+    <t>克罗埃西亚军事</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E6%B5%A6%E8%B7%AF%E6%96%AF%E8%BB%8D%E4%BA%8B</t>
   </si>
   <si>
-    <t>塞浦路斯軍事</t>
+    <t>塞浦路斯军事</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E9%BA%A6%E5%86%9B%E4%BA%8B</t>
@@ -497,25 +497,25 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8A%AC%E8%98%AD%E8%BB%8D%E4%BA%8B</t>
   </si>
   <si>
-    <t>芬蘭軍事</t>
+    <t>芬兰军事</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B%E8%BB%8D%E4%BA%8B</t>
   </si>
   <si>
-    <t>法國軍事</t>
+    <t>法国军事</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%E4%BA%9E%E8%BB%8D%E4%BA%8B</t>
   </si>
   <si>
-    <t>喬治亞軍事</t>
+    <t>乔治亚军事</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B%E8%BB%8D%E4%BA%8B</t>
   </si>
   <si>
-    <t>德國軍事</t>
+    <t>德国军事</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%85%8A%E5%86%9B%E4%BA%8B</t>
@@ -533,7 +533,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E7%88%BE%E8%98%AD%E8%BB%8D%E4%BA%8B</t>
   </si>
   <si>
-    <t>愛爾蘭軍事</t>
+    <t>爱尔兰军事</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E5%A4%A7%E5%88%A9%E5%86%9B%E4%BA%8B</t>
@@ -545,25 +545,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9B%A7%E6%A3%AE%E5%A0%A1%E8%BB%8D%E4%BA%8B</t>
   </si>
   <si>
-    <t>盧森堡軍事</t>
+    <t>卢森堡军事</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD%E8%BB%8D%E4%BA%8B</t>
   </si>
   <si>
-    <t>荷蘭軍事</t>
+    <t>荷兰军事</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E8%98%AD%E8%BB%8D%E4%BA%8B</t>
   </si>
   <si>
-    <t>波蘭軍事</t>
+    <t>波兰军事</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%91%A1%E8%90%84%E7%89%99%E8%BB%8D%E4%BA%8B</t>
   </si>
   <si>
-    <t>葡萄牙軍事</t>
+    <t>葡萄牙军事</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BD%97%E6%96%AF%E5%86%9B%E4%BA%8B</t>
@@ -575,13 +575,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E7%88%BE%E7%B6%AD%E4%BA%9E%E8%BB%8D%E4%BA%8B</t>
   </si>
   <si>
-    <t>塞爾維亞軍事</t>
+    <t>塞尔维亚军事</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E8%BB%8D%E4%BA%8B</t>
   </si>
   <si>
-    <t>西班牙軍事</t>
+    <t>西班牙军事</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%85%B8%E5%86%9B%E4%BA%8B</t>
@@ -593,7 +593,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%A3%AB%E8%BB%8D%E4%BA%8B</t>
   </si>
   <si>
-    <t>瑞士軍事</t>
+    <t>瑞士军事</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E8%80%B3%E5%85%B6%E5%86%9B%E4%BA%8B</t>
@@ -611,7 +611,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E8%BB%8D%E4%BA%8B</t>
   </si>
   <si>
-    <t>英國軍事</t>
+    <t>英国军事</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%89%E9%99%90%E6%89%BF%E8%AE%A4%E5%9B%BD%E5%AE%B6%E5%88%97%E8%A1%A8</t>
@@ -629,7 +629,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E6%AC%8A</t>
   </si>
   <si>
-    <t>主權</t>
+    <t>主权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E7%9B%9F%E5%86%9B%E4%BA%8B</t>
